--- a/데이터 수집 파이프라인/movie_data20220807.xlsx
+++ b/데이터 수집 파이프라인/movie_data20220807.xlsx
@@ -193,7 +193,7 @@
     <t>2022-08-10</t>
   </si>
   <si>
-    <t>4580762431</t>
+    <t>4580752431</t>
   </si>
   <si>
     <t>2937124308</t>
@@ -253,13 +253,13 @@
     <t>0.3</t>
   </si>
   <si>
-    <t>-252913959</t>
-  </si>
-  <si>
-    <t>-512921993</t>
-  </si>
-  <si>
-    <t>-65850336</t>
+    <t>-252892959</t>
+  </si>
+  <si>
+    <t>-512893993</t>
+  </si>
+  <si>
+    <t>-65842336</t>
   </si>
   <si>
     <t>-9967251</t>
@@ -313,13 +313,13 @@
     <t>-7.2</t>
   </si>
   <si>
-    <t>46981941465</t>
-  </si>
-  <si>
-    <t>14080681091</t>
-  </si>
-  <si>
-    <t>79467501138</t>
+    <t>46980914465</t>
+  </si>
+  <si>
+    <t>14020569091</t>
+  </si>
+  <si>
+    <t>79467357638</t>
   </si>
   <si>
     <t>19134260321</t>
@@ -328,10 +328,10 @@
     <t>3435645867</t>
   </si>
   <si>
-    <t>18385204948</t>
-  </si>
-  <si>
-    <t>15629862451</t>
+    <t>18385176948</t>
+  </si>
+  <si>
+    <t>15629807451</t>
   </si>
   <si>
     <t>346253298</t>
@@ -340,10 +340,10 @@
     <t>4598589872</t>
   </si>
   <si>
-    <t>165546798</t>
-  </si>
-  <si>
-    <t>440812</t>
+    <t>166287798</t>
+  </si>
+  <si>
+    <t>440811</t>
   </si>
   <si>
     <t>278728</t>
@@ -373,13 +373,13 @@
     <t>2377</t>
   </si>
   <si>
-    <t>-24603</t>
-  </si>
-  <si>
-    <t>-45750</t>
-  </si>
-  <si>
-    <t>-5642</t>
+    <t>-24600</t>
+  </si>
+  <si>
+    <t>-45748</t>
+  </si>
+  <si>
+    <t>-5641</t>
   </si>
   <si>
     <t>-1272</t>
@@ -430,13 +430,13 @@
     <t>-6.5</t>
   </si>
   <si>
-    <t>4598483</t>
-  </si>
-  <si>
-    <t>1397962</t>
-  </si>
-  <si>
-    <t>7448881</t>
+    <t>4598326</t>
+  </si>
+  <si>
+    <t>1367956</t>
+  </si>
+  <si>
+    <t>7448869</t>
   </si>
   <si>
     <t>1972787</t>
@@ -445,10 +445,10 @@
     <t>367157</t>
   </si>
   <si>
-    <t>1775050</t>
-  </si>
-  <si>
-    <t>1496935</t>
+    <t>1775048</t>
+  </si>
+  <si>
+    <t>1496931</t>
   </si>
   <si>
     <t>36417</t>
@@ -457,7 +457,7 @@
     <t>442570</t>
   </si>
   <si>
-    <t>16573</t>
+    <t>16570</t>
   </si>
   <si>
     <t>1638</t>
